--- a/final_results/3/counting.xlsx
+++ b/final_results/3/counting.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>

--- a/final_results/3/counting.xlsx
+++ b/final_results/3/counting.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>

--- a/final_results/3/counting.xlsx
+++ b/final_results/3/counting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorge/Desktop/tfg-ci/Pruebas_finales/3/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B697C8-8D8E-4C45-A778-23276201CF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62D60D1-8513-3843-9D4E-FCF9C12A986B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35880" yWindow="2020" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Encontrados_GitHub</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>bamboo</t>
-  </si>
-  <si>
-    <t>concourse</t>
   </si>
   <si>
     <t>gitlab ci</t>
@@ -246,9 +243,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:f>Sheet1!$A$2:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>jenkins</c:v>
                 </c:pt>
@@ -268,24 +265,21 @@
                   <c:v>bamboo</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>concourse</c:v>
+                  <c:v>gitlab ci</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>gitlab ci</c:v>
+                  <c:v>codeship</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>codeship</c:v>
+                  <c:v>teamcity</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>teamcity</c:v>
+                  <c:v>bazel</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>bazel</c:v>
+                  <c:v>semaphore ci</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>semaphore ci</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>appveyor</c:v>
                 </c:pt>
               </c:strCache>
@@ -293,10 +287,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$14</c:f>
+              <c:f>Sheet1!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -316,7 +310,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -331,9 +325,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1088,7 +1079,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>641350</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1402,11 +1393,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1474,7 +1463,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1522,14 +1511,6 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
         <v>82</v>
       </c>
     </row>
